--- a/prisma/staticfile/sample_description.xlsx
+++ b/prisma/staticfile/sample_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD41EE8-7784-4B79-865E-4647122F2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ECAAB-69AC-4433-B872-8FA6E8DD460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21525" yWindow="4830" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
+    <workbookView xWindow="9930" yWindow="5295" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>Dietary Supplement</t>
+  </si>
+  <si>
+    <t>Yogurt Mixed Drink</t>
+  </si>
+  <si>
+    <t>Yogurt Mixed Drink Concentrate</t>
+  </si>
+  <si>
+    <t>Carbonated Drink</t>
+  </si>
+  <si>
+    <t>Electrolyte Drink</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>YOGURT</t>
+  </si>
+  <si>
+    <t>ELECTROLYTE</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>CARBONATE</t>
+  </si>
+  <si>
+    <t>PORTABLE</t>
+  </si>
+  <si>
+    <t>Portable Water</t>
+  </si>
+  <si>
+    <t>YOGURT_CON</t>
   </si>
 </sst>
 </file>
@@ -415,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +525,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prisma/staticfile/sample_description.xlsx
+++ b/prisma/staticfile/sample_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409ECAAB-69AC-4433-B872-8FA6E8DD460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D937D15A-41C9-4EB0-B5EC-1E36DC5F89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9930" yWindow="5295" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>CARBONATE</t>
   </si>
   <si>
-    <t>PORTABLE</t>
-  </si>
-  <si>
-    <t>Portable Water</t>
-  </si>
-  <si>
     <t>YOGURT_CON</t>
+  </si>
+  <si>
+    <t>POTABLE</t>
+  </si>
+  <si>
+    <t>Potable Water</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>

--- a/prisma/staticfile/sample_description.xlsx
+++ b/prisma/staticfile/sample_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D937D15A-41C9-4EB0-B5EC-1E36DC5F89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5D174-4CBF-4D0B-842D-99DBA6B87A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="5295" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
+    <workbookView xWindow="23610" yWindow="3465" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Potable Water</t>
+  </si>
+  <si>
+    <t>CARBON_ENERGY</t>
+  </si>
+  <si>
+    <t>CARBON_YOGURT</t>
+  </si>
+  <si>
+    <t>CARBON_FUNC</t>
+  </si>
+  <si>
+    <t>Carbonated Energy Drink</t>
+  </si>
+  <si>
+    <t>Carbonated Yogurt Mixed Drink</t>
+  </si>
+  <si>
+    <t>Carbonated Functional Drink</t>
   </si>
 </sst>
 </file>
@@ -457,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,6 +641,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
